--- a/src/test/resources/TestDriver/TestRevenue/ActivityData_Apr22.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/ActivityData_Apr22.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD5EDC-2703-4924-A605-74473FF06479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InstrumentAttribute" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,96 +36,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">PostingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EffectiveDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttributeId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUMENTID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDER_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALE_PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUANTITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENDED_SALEPRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_STARTDATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_ENDDATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRENCY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVOICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDHJ-EGNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFF-AAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaaS Basic Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFF-BBBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaaS Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFF-CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaaS Premium Subscription</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+  <si>
+    <t>PostingDate</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>AttributeId</t>
+  </si>
+  <si>
+    <t>INSTRUMENTID</t>
+  </si>
+  <si>
+    <t>ORDER_DATE</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>PRODUCT_ID</t>
+  </si>
+  <si>
+    <t>SALE_PRICE</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>EXTENDED_SALEPRICE</t>
+  </si>
+  <si>
+    <t>ITEM_STARTDATE</t>
+  </si>
+  <si>
+    <t>ITEM_ENDDATE</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>SO1</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>IDHJ-EGNY</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>FFFF-AAAA</t>
+  </si>
+  <si>
+    <t>SaaS Basic Subscription</t>
+  </si>
+  <si>
+    <t>FFFF-BBBB</t>
+  </si>
+  <si>
+    <t>SaaS Implementation</t>
+  </si>
+  <si>
+    <t>FFFF-CCC</t>
+  </si>
+  <si>
+    <t>SaaS Premium Subscription</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>SO5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,22 +141,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,105 +177,50 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -319,60 +279,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -404,7 +380,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -428,7 +404,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -488,48 +464,47 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="34.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="11.57"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,26 +550,26 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C2" s="3" t="n">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>44576</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="7"/>
@@ -605,203 +580,1032 @@
       <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>44576</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="n">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>-200</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>-200</v>
       </c>
-      <c r="K3" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="L3" s="5" t="n">
+      <c r="K3" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L3" s="5">
         <v>44576</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>44576</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="7">
         <v>100</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="7">
         <v>1200</v>
       </c>
-      <c r="K4" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="K4" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L4" s="5">
         <v>44941</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C5" s="1" t="n">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>44576</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="7">
         <v>300</v>
       </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="n">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
         <v>300</v>
       </c>
-      <c r="K5" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="K5" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L5" s="5">
         <v>44576</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="C6" s="1" t="n">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>44576</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="7">
         <v>50</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>24</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>1200</v>
       </c>
-      <c r="K6" s="5" t="n">
-        <v>44576</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="K6" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L6" s="5">
         <v>44941</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-400</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-400</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>200</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2400</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L9" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>600</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>600</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L10" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2400</v>
+      </c>
+      <c r="K11" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L11" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-600</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-600</v>
+      </c>
+      <c r="K13" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L13" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>300</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L14" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>900</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>900</v>
+      </c>
+      <c r="K15" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L15" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>150</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3600</v>
+      </c>
+      <c r="K16" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L16" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-3200</v>
+      </c>
+      <c r="K18" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L18" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>400</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7">
+        <v>19200</v>
+      </c>
+      <c r="K19" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L19" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4800</v>
+      </c>
+      <c r="K20" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L20" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>200</v>
+      </c>
+      <c r="I21" s="7">
+        <v>24</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4800</v>
+      </c>
+      <c r="K21" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L21" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-4000</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-20000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L23" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7">
+        <v>120000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L24" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6000</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>30000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L25" s="5">
+        <v>44576</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44576</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5">
+        <v>44576</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="7">
+        <v>24</v>
+      </c>
+      <c r="J26" s="7">
+        <v>24000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>44576</v>
+      </c>
+      <c r="L26" s="5">
+        <v>44941</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f4c566ce-a3ce-4b10-b55b-1e9d56ad1b26}" enabled="0" method="" siteId="{f4c566ce-a3ce-4b10-b55b-1e9d56ad1b26}" removed="1"/>
-</clbl:labelList>
 </file>
--- a/src/test/resources/TestDriver/TestRevenue/ActivityData_Apr22.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/ActivityData_Apr22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD5EDC-2703-4924-A605-74473FF06479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E71CA0-B760-4DE5-9A99-A2CA0DDCC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,9 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1447,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="7">
-        <v>-4000</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
       </c>
       <c r="J23" s="7">
-        <v>-20000</v>
+        <v>-1000</v>
       </c>
       <c r="K23" s="5">
         <v>44576</v>
@@ -1491,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="H24" s="7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I24" s="7">
         <v>12</v>
       </c>
       <c r="J24" s="7">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="K24" s="5">
         <v>44576</v>
@@ -1535,13 +1537,13 @@
         <v>3</v>
       </c>
       <c r="H25" s="7">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
       </c>
       <c r="J25" s="7">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="K25" s="5">
         <v>44576</v>
@@ -1579,13 +1581,13 @@
         <v>5</v>
       </c>
       <c r="H26" s="7">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="I26" s="7">
         <v>24</v>
       </c>
       <c r="J26" s="7">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="K26" s="5">
         <v>44576</v>
